--- a/TestCPy/bin/Debug/netcoreapp3.1/Players/Oklahoma_City_Thunder.xlsx
+++ b/TestCPy/bin/Debug/netcoreapp3.1/Players/Oklahoma_City_Thunder.xlsx
@@ -588,79 +588,79 @@
         <v>22</v>
       </c>
       <c r="D2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F2" t="n">
-        <v>717</v>
+        <v>756</v>
       </c>
       <c r="G2" t="n">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="H2" t="n">
-        <v>300</v>
+        <v>318</v>
       </c>
       <c r="I2" t="n">
-        <v>0.433</v>
+        <v>0.434</v>
       </c>
       <c r="J2" t="n">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="K2" t="n">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="L2" t="n">
-        <v>0.335</v>
+        <v>0.339</v>
       </c>
       <c r="M2" t="n">
+        <v>80</v>
+      </c>
+      <c r="N2" t="n">
+        <v>147</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.544</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>69</v>
+      </c>
+      <c r="R2" t="n">
+        <v>82</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.841</v>
+      </c>
+      <c r="T2" t="n">
+        <v>17</v>
+      </c>
+      <c r="U2" t="n">
         <v>76</v>
       </c>
-      <c r="N2" t="n">
-        <v>139</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0.547</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0.523</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>67</v>
-      </c>
-      <c r="R2" t="n">
-        <v>78</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0.859</v>
-      </c>
-      <c r="T2" t="n">
-        <v>15</v>
-      </c>
-      <c r="U2" t="n">
-        <v>72</v>
-      </c>
       <c r="V2" t="n">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="W2" t="n">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="X2" t="n">
         <v>20</v>
       </c>
       <c r="Y2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Z2" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AA2" t="n">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="AB2" t="n">
-        <v>381</v>
+        <v>403</v>
       </c>
     </row>
     <row r="3">
@@ -676,79 +676,79 @@
         <v>23</v>
       </c>
       <c r="D3" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F3" t="n">
-        <v>701</v>
+        <v>737</v>
       </c>
       <c r="G3" t="n">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="H3" t="n">
-        <v>361</v>
+        <v>378</v>
       </c>
       <c r="I3" t="n">
-        <v>0.413</v>
+        <v>0.41</v>
       </c>
       <c r="J3" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K3" t="n">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="L3" t="n">
-        <v>0.295</v>
+        <v>0.297</v>
       </c>
       <c r="M3" t="n">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="N3" t="n">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="O3" t="n">
-        <v>0.48</v>
+        <v>0.475</v>
       </c>
       <c r="P3" t="n">
-        <v>0.467</v>
+        <v>0.464</v>
       </c>
       <c r="Q3" t="n">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="R3" t="n">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="S3" t="n">
-        <v>0.787</v>
+        <v>0.806</v>
       </c>
       <c r="T3" t="n">
         <v>11</v>
       </c>
       <c r="U3" t="n">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="V3" t="n">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="W3" t="n">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="X3" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Y3" t="n">
         <v>13</v>
       </c>
       <c r="Z3" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="AA3" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AB3" t="n">
-        <v>433</v>
+        <v>459</v>
       </c>
     </row>
     <row r="4">
@@ -764,43 +764,43 @@
         <v>21</v>
       </c>
       <c r="D4" t="n">
+        <v>24</v>
+      </c>
+      <c r="E4" t="n">
+        <v>24</v>
+      </c>
+      <c r="F4" t="n">
+        <v>663</v>
+      </c>
+      <c r="G4" t="n">
+        <v>80</v>
+      </c>
+      <c r="H4" t="n">
+        <v>214</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.374</v>
+      </c>
+      <c r="J4" t="n">
         <v>23</v>
       </c>
-      <c r="E4" t="n">
-        <v>23</v>
-      </c>
-      <c r="F4" t="n">
-        <v>630</v>
-      </c>
-      <c r="G4" t="n">
-        <v>73</v>
-      </c>
-      <c r="H4" t="n">
-        <v>206</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.354</v>
-      </c>
-      <c r="J4" t="n">
-        <v>22</v>
-      </c>
       <c r="K4" t="n">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L4" t="n">
-        <v>0.272</v>
+        <v>0.277</v>
       </c>
       <c r="M4" t="n">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="N4" t="n">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="O4" t="n">
-        <v>0.408</v>
+        <v>0.435</v>
       </c>
       <c r="P4" t="n">
-        <v>0.408</v>
+        <v>0.428</v>
       </c>
       <c r="Q4" t="n">
         <v>26</v>
@@ -815,28 +815,28 @@
         <v>22</v>
       </c>
       <c r="U4" t="n">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="V4" t="n">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="W4" t="n">
         <v>31</v>
       </c>
       <c r="X4" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="Y4" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Z4" t="n">
         <v>34</v>
       </c>
       <c r="AA4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AB4" t="n">
-        <v>194</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5">
@@ -852,43 +852,43 @@
         <v>19</v>
       </c>
       <c r="D5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F5" t="n">
-        <v>617</v>
+        <v>648</v>
       </c>
       <c r="G5" t="n">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="H5" t="n">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="I5" t="n">
         <v>0.403</v>
       </c>
       <c r="J5" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K5" t="n">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="L5" t="n">
-        <v>0.254</v>
+        <v>0.276</v>
       </c>
       <c r="M5" t="n">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="N5" t="n">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="O5" t="n">
-        <v>0.471</v>
+        <v>0.463</v>
       </c>
       <c r="P5" t="n">
-        <v>0.442</v>
+        <v>0.447</v>
       </c>
       <c r="Q5" t="n">
         <v>19</v>
@@ -903,28 +903,28 @@
         <v>31</v>
       </c>
       <c r="U5" t="n">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="V5" t="n">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="W5" t="n">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="X5" t="n">
         <v>21</v>
       </c>
       <c r="Y5" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Z5" t="n">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="AA5" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AB5" t="n">
-        <v>219</v>
+        <v>232</v>
       </c>
     </row>
     <row r="6">
@@ -940,64 +940,64 @@
         <v>21</v>
       </c>
       <c r="D6" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F6" t="n">
-        <v>504</v>
+        <v>522</v>
       </c>
       <c r="G6" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H6" t="n">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="I6" t="n">
-        <v>0.418</v>
+        <v>0.419</v>
       </c>
       <c r="J6" t="n">
         <v>24</v>
       </c>
       <c r="K6" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L6" t="n">
-        <v>0.338</v>
+        <v>0.333</v>
       </c>
       <c r="M6" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N6" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O6" t="n">
-        <v>0.493</v>
+        <v>0.5</v>
       </c>
       <c r="P6" t="n">
         <v>0.5</v>
       </c>
       <c r="Q6" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="R6" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="S6" t="n">
-        <v>0.647</v>
+        <v>0.667</v>
       </c>
       <c r="T6" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="U6" t="n">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="V6" t="n">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="W6" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="X6" t="n">
         <v>13</v>
@@ -1009,10 +1009,10 @@
         <v>20</v>
       </c>
       <c r="AA6" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="AB6" t="n">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7">
@@ -1028,31 +1028,31 @@
         <v>27</v>
       </c>
       <c r="D7" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>410</v>
+        <v>431</v>
       </c>
       <c r="G7" t="n">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H7" t="n">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="I7" t="n">
-        <v>0.462</v>
+        <v>0.472</v>
       </c>
       <c r="J7" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="K7" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="L7" t="n">
-        <v>0.35</v>
+        <v>0.386</v>
       </c>
       <c r="M7" t="n">
         <v>41</v>
@@ -1064,7 +1064,7 @@
         <v>0.519</v>
       </c>
       <c r="P7" t="n">
-        <v>0.521</v>
+        <v>0.541</v>
       </c>
       <c r="Q7" t="n">
         <v>17</v>
@@ -1076,31 +1076,31 @@
         <v>0.5669999999999999</v>
       </c>
       <c r="T7" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="U7" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="V7" t="n">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="W7" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="X7" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="Y7" t="n">
         <v>5</v>
       </c>
       <c r="Z7" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AA7" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AB7" t="n">
-        <v>141</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8">
@@ -1116,40 +1116,40 @@
         <v>20</v>
       </c>
       <c r="D8" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>336</v>
+        <v>346</v>
       </c>
       <c r="G8" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H8" t="n">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="I8" t="n">
-        <v>0.344</v>
+        <v>0.341</v>
       </c>
       <c r="J8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K8" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="L8" t="n">
-        <v>0.182</v>
+        <v>0.193</v>
       </c>
       <c r="M8" t="n">
         <v>34</v>
       </c>
       <c r="N8" t="n">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="O8" t="n">
-        <v>0.466</v>
+        <v>0.453</v>
       </c>
       <c r="P8" t="n">
         <v>0.383</v>
@@ -1167,16 +1167,16 @@
         <v>24</v>
       </c>
       <c r="U8" t="n">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="V8" t="n">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="W8" t="n">
         <v>28</v>
       </c>
       <c r="X8" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Y8" t="n">
         <v>11</v>
@@ -1185,10 +1185,10 @@
         <v>28</v>
       </c>
       <c r="AA8" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AB8" t="n">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9">
@@ -1204,22 +1204,22 @@
         <v>30</v>
       </c>
       <c r="D9" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
       </c>
       <c r="F9" t="n">
-        <v>284</v>
+        <v>301</v>
       </c>
       <c r="G9" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="H9" t="n">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="I9" t="n">
-        <v>0.5</v>
+        <v>0.511</v>
       </c>
       <c r="J9" t="n">
         <v>2</v>
@@ -1231,16 +1231,16 @@
         <v>0.25</v>
       </c>
       <c r="M9" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="N9" t="n">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="O9" t="n">
-        <v>0.525</v>
+        <v>0.535</v>
       </c>
       <c r="P9" t="n">
-        <v>0.511</v>
+        <v>0.521</v>
       </c>
       <c r="Q9" t="n">
         <v>8</v>
@@ -1252,31 +1252,31 @@
         <v>0.571</v>
       </c>
       <c r="T9" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="U9" t="n">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="V9" t="n">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="W9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="X9" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Y9" t="n">
         <v>3</v>
       </c>
       <c r="Z9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AA9" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AB9" t="n">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10">
@@ -1380,31 +1380,31 @@
         <v>30</v>
       </c>
       <c r="D11" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>248</v>
+        <v>264</v>
       </c>
       <c r="G11" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H11" t="n">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="I11" t="n">
-        <v>0.455</v>
+        <v>0.449</v>
       </c>
       <c r="J11" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K11" t="n">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="L11" t="n">
-        <v>0.433</v>
+        <v>0.425</v>
       </c>
       <c r="M11" t="n">
         <v>17</v>
@@ -1416,7 +1416,7 @@
         <v>0.5</v>
       </c>
       <c r="P11" t="n">
-        <v>0.599</v>
+        <v>0.593</v>
       </c>
       <c r="Q11" t="n">
         <v>24</v>
@@ -1431,13 +1431,13 @@
         <v>7</v>
       </c>
       <c r="U11" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V11" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="W11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="X11" t="n">
         <v>7</v>
@@ -1449,10 +1449,10 @@
         <v>7</v>
       </c>
       <c r="AA11" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AB11" t="n">
-        <v>145</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12">
@@ -1468,43 +1468,43 @@
         <v>20</v>
       </c>
       <c r="D12" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E12" t="n">
         <v>2</v>
       </c>
       <c r="F12" t="n">
-        <v>228</v>
+        <v>246</v>
       </c>
       <c r="G12" t="n">
+        <v>41</v>
+      </c>
+      <c r="H12" t="n">
+        <v>103</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.398</v>
+      </c>
+      <c r="J12" t="n">
+        <v>14</v>
+      </c>
+      <c r="K12" t="n">
         <v>40</v>
       </c>
-      <c r="H12" t="n">
-        <v>97</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0.412</v>
-      </c>
-      <c r="J12" t="n">
-        <v>13</v>
-      </c>
-      <c r="K12" t="n">
-        <v>37</v>
-      </c>
       <c r="L12" t="n">
-        <v>0.351</v>
+        <v>0.35</v>
       </c>
       <c r="M12" t="n">
         <v>27</v>
       </c>
       <c r="N12" t="n">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="O12" t="n">
-        <v>0.45</v>
+        <v>0.429</v>
       </c>
       <c r="P12" t="n">
-        <v>0.479</v>
+        <v>0.466</v>
       </c>
       <c r="Q12" t="n">
         <v>13</v>
@@ -1525,22 +1525,22 @@
         <v>27</v>
       </c>
       <c r="W12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="X12" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="Y12" t="n">
         <v>5</v>
       </c>
       <c r="Z12" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA12" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AB12" t="n">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13">
@@ -1820,31 +1820,31 @@
         <v>27</v>
       </c>
       <c r="D16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G16" t="n">
         <v>2</v>
       </c>
       <c r="H16" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I16" t="n">
-        <v>0.143</v>
+        <v>0.133</v>
       </c>
       <c r="J16" t="n">
         <v>2</v>
       </c>
       <c r="K16" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L16" t="n">
-        <v>0.167</v>
+        <v>0.154</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -1856,7 +1856,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0.214</v>
+        <v>0.2</v>
       </c>
       <c r="Q16" t="n">
         <v>1</v>
@@ -1871,10 +1871,10 @@
         <v>2</v>
       </c>
       <c r="U16" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="V16" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="W16" t="n">
         <v>3</v>
@@ -1886,7 +1886,7 @@
         <v>3</v>
       </c>
       <c r="Z16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA16" t="n">
         <v>4</v>
@@ -2072,77 +2072,77 @@
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="n">
-        <v>5520</v>
+        <v>5760</v>
       </c>
       <c r="G19" t="n">
-        <v>835</v>
+        <v>873</v>
       </c>
       <c r="H19" t="n">
-        <v>2033</v>
+        <v>2117</v>
       </c>
       <c r="I19" t="n">
-        <v>0.411</v>
+        <v>0.412</v>
       </c>
       <c r="J19" t="n">
-        <v>262</v>
+        <v>279</v>
       </c>
       <c r="K19" t="n">
-        <v>863</v>
+        <v>903</v>
       </c>
       <c r="L19" t="n">
-        <v>0.304</v>
+        <v>0.309</v>
       </c>
       <c r="M19" t="n">
-        <v>573</v>
+        <v>594</v>
       </c>
       <c r="N19" t="n">
-        <v>1170</v>
+        <v>1214</v>
       </c>
       <c r="O19" t="n">
-        <v>0.49</v>
+        <v>0.489</v>
       </c>
       <c r="P19" t="n">
-        <v>0.475</v>
+        <v>0.478</v>
       </c>
       <c r="Q19" t="n">
-        <v>341</v>
+        <v>358</v>
       </c>
       <c r="R19" t="n">
-        <v>458</v>
+        <v>478</v>
       </c>
       <c r="S19" t="n">
-        <v>0.745</v>
+        <v>0.749</v>
       </c>
       <c r="T19" t="n">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="U19" t="n">
-        <v>826</v>
+        <v>859</v>
       </c>
       <c r="V19" t="n">
-        <v>1055</v>
+        <v>1095</v>
       </c>
       <c r="W19" t="n">
-        <v>456</v>
+        <v>484</v>
       </c>
       <c r="X19" t="n">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="Y19" t="n">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="Z19" t="n">
-        <v>326</v>
+        <v>340</v>
       </c>
       <c r="AA19" t="n">
-        <v>387</v>
+        <v>405</v>
       </c>
       <c r="AB19" t="n">
-        <v>2273</v>
+        <v>2383</v>
       </c>
     </row>
   </sheetData>
